--- a/src/main/resources/TestData.xlsx
+++ b/src/main/resources/TestData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{B0F4F5F4-FEDE-44E1-89A1-DAD3E606DE32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{390ED05D-CD41-408F-A03A-87BF494144E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="39">
   <si>
     <t>admin</t>
   </si>
@@ -127,6 +127,18 @@
   </si>
   <si>
     <t>Job seeking</t>
+  </si>
+  <si>
+    <t>PR30001</t>
+  </si>
+  <si>
+    <t>Kanakambary</t>
+  </si>
+  <si>
+    <t>TC_41</t>
+  </si>
+  <si>
+    <t>TC_38</t>
   </si>
 </sst>
 </file>
@@ -530,10 +542,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BDE0319-A1DE-487B-A6A9-C7667C55A685}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -655,6 +667,49 @@
       </c>
       <c r="C6" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8">
+        <v>123456</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/TestData.xlsx
+++ b/src/main/resources/TestData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{390ED05D-CD41-408F-A03A-87BF494144E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{CC20C7A0-0FAA-4AAB-9119-BCA5E4441089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,7 +12,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:Q16"/>
+  <oleSize ref="A1:O14"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="44">
   <si>
     <t>admin</t>
   </si>
@@ -139,6 +139,21 @@
   </si>
   <si>
     <t>TC_38</t>
+  </si>
+  <si>
+    <t>TC_49</t>
+  </si>
+  <si>
+    <t>TC_50</t>
+  </si>
+  <si>
+    <t>RPA</t>
+  </si>
+  <si>
+    <t>NORKA</t>
+  </si>
+  <si>
+    <t>Incompetent</t>
   </si>
 </sst>
 </file>
@@ -473,10 +488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -532,9 +547,15 @@
         <v>16</v>
       </c>
     </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1" xr:uid="{D8611233-5E0D-417B-BF31-9BFD12485812}"/>
+    <hyperlink ref="B7" r:id="rId2" xr:uid="{737E7CE0-C519-436A-AF43-AC6AD26AF89F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -542,10 +563,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BDE0319-A1DE-487B-A6A9-C7667C55A685}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -553,6 +574,7 @@
     <col min="2" max="2" width="15.44140625" customWidth="1"/>
     <col min="3" max="3" width="11.44140625" customWidth="1"/>
     <col min="6" max="6" width="16.109375" customWidth="1"/>
+    <col min="7" max="7" width="11.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -710,6 +732,52 @@
       </c>
       <c r="G8" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/TestData.xlsx
+++ b/src/main/resources/TestData.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{CC20C7A0-0FAA-4AAB-9119-BCA5E4441089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{135BE697-2D9C-4CF6-8580-D20B8019C520}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3492" yWindow="960" windowWidth="15192" windowHeight="9912" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:O14"/>
+  <oleSize ref="A1:J7"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -490,7 +490,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -565,7 +565,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BDE0319-A1DE-487B-A6A9-C7667C55A685}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>

--- a/src/main/resources/TestData.xlsx
+++ b/src/main/resources/TestData.xlsx
@@ -3,16 +3,20 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{135BE697-2D9C-4CF6-8580-D20B8019C520}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d28d8e95285ce730/Documents/SWTesting/ICTAKInternship/LearnerTracker/src/main/resources/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:801_{3DD5E36A-376A-4DB1-A9DB-F3D70C72BA29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D23E80E9-829F-41FF-BB2A-577A7B1E4D7E}"/>
   <bookViews>
-    <workbookView xWindow="3492" yWindow="960" windowWidth="15192" windowHeight="9912" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:J7"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="49">
   <si>
     <t>admin</t>
   </si>
@@ -154,6 +158,21 @@
   </si>
   <si>
     <t>Incompetent</t>
+  </si>
+  <si>
+    <t>TC_14</t>
+  </si>
+  <si>
+    <t>TC_28</t>
+  </si>
+  <si>
+    <t>nel</t>
+  </si>
+  <si>
+    <t>TC_51</t>
+  </si>
+  <si>
+    <t>Training Head</t>
   </si>
 </sst>
 </file>
@@ -223,6 +242,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -490,7 +513,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -563,16 +586,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BDE0319-A1DE-487B-A6A9-C7667C55A685}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="15.44140625" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" customWidth="1"/>
+    <col min="3" max="3" width="15.77734375" customWidth="1"/>
+    <col min="4" max="4" width="12.5546875" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" customWidth="1"/>
     <col min="6" max="6" width="16.109375" customWidth="1"/>
     <col min="7" max="7" width="11.44140625" bestFit="1" customWidth="1"/>
   </cols>
@@ -778,6 +803,63 @@
       </c>
       <c r="G10" t="s">
         <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -789,6 +871,11 @@
     <hyperlink ref="C3" r:id="rId4" xr:uid="{E2953142-87E3-49B8-8501-9A1B46E9BB84}"/>
     <hyperlink ref="E4" r:id="rId5" display="neela@123" xr:uid="{F430B83A-72BD-4C9F-B774-44CADF29B119}"/>
     <hyperlink ref="C4" r:id="rId6" xr:uid="{1149F4CB-C342-49E7-87D4-B8B2A6F8D7D9}"/>
+    <hyperlink ref="E11" r:id="rId7" xr:uid="{F0D84916-CAFF-4035-92F0-E43376B78F8B}"/>
+    <hyperlink ref="C12" r:id="rId8" xr:uid="{EBC9E9BA-0A41-4A42-A191-8F152DD01D66}"/>
+    <hyperlink ref="E12" r:id="rId9" xr:uid="{3071FF48-9775-4B77-9AFE-3D04F4E26F43}"/>
+    <hyperlink ref="C13" r:id="rId10" xr:uid="{8058A3A8-76A8-4444-8431-FADDA3870B7F}"/>
+    <hyperlink ref="E13" r:id="rId11" xr:uid="{85A29A00-7B55-462F-A387-CC727204364B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
